--- a/Datasets/TestSets/test1/seven-way.xlsx
+++ b/Datasets/TestSets/test1/seven-way.xlsx
@@ -234,7 +234,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,13 +246,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -702,28 +695,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,118 +728,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,10 +1200,13 @@
   <dimension ref="A1:N344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J1" sqref="H$1:H$1048576 J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="11.5"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12.75" spans="1:14">
       <c r="A1" s="2" t="s">
@@ -1279,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I2">
         <v>-10.12</v>
@@ -1367,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I4">
         <v>2.46</v>
@@ -1411,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I5">
         <v>-11.35</v>
@@ -1455,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I6">
         <v>-1.53</v>
@@ -1543,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I8">
         <v>-13.92</v>
@@ -1587,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I9">
         <v>-10.12</v>
@@ -1675,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I11">
         <v>2.46</v>
@@ -1719,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I12">
         <v>-11.35</v>
@@ -1763,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I13">
         <v>-1.53</v>
@@ -1851,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I15">
         <v>-4.14</v>
@@ -1895,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I16">
         <v>-10.12</v>
@@ -1983,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I18">
         <v>2.46</v>
@@ -2027,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I19">
         <v>-11.35</v>
@@ -2071,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I20">
         <v>-1.53</v>
@@ -2159,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="H22">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I22">
         <v>-10.66</v>
@@ -2203,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I23">
         <v>-10.12</v>
@@ -2291,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I25">
         <v>2.46</v>
@@ -2335,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I26">
         <v>-11.35</v>
@@ -2379,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I27">
         <v>-1.53</v>
@@ -2467,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I29">
         <v>-13.92</v>
@@ -2511,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I30">
         <v>-10.12</v>
@@ -2599,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I32">
         <v>2.46</v>
@@ -2643,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I33">
         <v>-11.35</v>
@@ -2687,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I34">
         <v>-1.53</v>
@@ -2775,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="H36">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I36">
         <v>-7.4</v>
@@ -2819,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I37">
         <v>-10.12</v>
@@ -2863,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I38">
         <v>-3.65</v>
@@ -2907,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I39">
         <v>-8.16</v>
@@ -2951,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I40">
         <v>-13.36</v>
@@ -2995,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I41">
         <v>-2.43</v>
@@ -3083,7 +3079,7 @@
         <v>3</v>
       </c>
       <c r="H43">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I43">
         <v>-3.31</v>
@@ -3127,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I44">
         <v>-10.12</v>
@@ -3215,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I46">
         <v>2.46</v>
@@ -3259,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I47">
         <v>-2.86</v>
@@ -3303,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I48">
         <v>-2.43</v>
@@ -3391,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="H50">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I50">
         <v>-12.06</v>
@@ -3435,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I51">
         <v>-10.12</v>
@@ -3523,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I53">
         <v>2.46</v>
@@ -3567,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I54">
         <v>-11.35</v>
@@ -3611,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I55">
         <v>-1.53</v>
@@ -3699,7 +3695,7 @@
         <v>3</v>
       </c>
       <c r="H57">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I57">
         <v>-10.66</v>
@@ -3743,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I58">
         <v>-2.8</v>
@@ -3831,7 +3827,7 @@
         <v>3</v>
       </c>
       <c r="H60">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I60">
         <v>2.46</v>
@@ -3875,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I61">
         <v>-2.27</v>
@@ -3919,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I62">
         <v>-2.43</v>
@@ -4007,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="H64">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I64">
         <v>-7.52</v>
@@ -4051,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I65">
         <v>-4.77</v>
@@ -4139,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="H67">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I67">
         <v>2.46</v>
@@ -4183,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I68">
         <v>-2.13</v>
@@ -4227,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I69">
         <v>-2.43</v>
@@ -4315,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I71">
         <v>-7.41</v>
@@ -4359,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I72">
         <v>-10.12</v>
@@ -4447,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I74">
         <v>2.46</v>
@@ -4491,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I75">
         <v>-11.35</v>
@@ -4535,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I76">
         <v>-1.53</v>
@@ -4623,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="H78">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I78">
         <v>-13.92</v>
@@ -4667,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I79">
         <v>-10.12</v>
@@ -4755,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I81">
         <v>2.46</v>
@@ -4799,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I82">
         <v>-11.35</v>
@@ -4843,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I83">
         <v>-1.53</v>
@@ -4931,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="H85">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I85">
         <v>-13.92</v>
@@ -4975,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I86">
         <v>-10.12</v>
@@ -5063,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I88">
         <v>2.46</v>
@@ -5107,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I89">
         <v>-11.35</v>
@@ -5151,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I90">
         <v>-1.53</v>
@@ -5239,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="H92">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I92">
         <v>-13.92</v>
@@ -5283,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I93">
         <v>-10.12</v>
@@ -5371,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I95">
         <v>2.46</v>
@@ -5415,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I96">
         <v>-11.35</v>
@@ -5459,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I97">
         <v>-1.53</v>
@@ -5547,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I99">
         <v>-10.66</v>
@@ -5591,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I100">
         <v>-10.12</v>
@@ -5679,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I102">
         <v>2.46</v>
@@ -5723,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I103">
         <v>-11.35</v>
@@ -5767,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I104">
         <v>-1.53</v>
@@ -5855,7 +5851,7 @@
         <v>3</v>
       </c>
       <c r="H106">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I106">
         <v>-10.66</v>
@@ -5899,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I107">
         <v>-10.12</v>
@@ -5987,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I109">
         <v>2.46</v>
@@ -6031,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I110">
         <v>0.83</v>
@@ -6075,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I111">
         <v>2.16</v>
@@ -6163,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="H113">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I113">
         <v>-7.4</v>
@@ -6207,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I114">
         <v>-8.03</v>
@@ -6295,7 +6291,7 @@
         <v>3</v>
       </c>
       <c r="H116">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I116">
         <v>2.46</v>
@@ -6339,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I117">
         <v>-8.45</v>
@@ -6383,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I118">
         <v>-2.43</v>
@@ -6471,7 +6467,7 @@
         <v>3</v>
       </c>
       <c r="H120">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I120">
         <v>-10.96</v>
@@ -6515,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I121">
         <v>-10.12</v>
@@ -6559,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I122">
         <v>-3.65</v>
@@ -6603,7 +6599,7 @@
         <v>2</v>
       </c>
       <c r="H123">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I123">
         <v>-8.16</v>
@@ -6647,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I124">
         <v>-12.07</v>
@@ -6691,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I125">
         <v>-2.43</v>
@@ -6779,7 +6775,7 @@
         <v>3</v>
       </c>
       <c r="H127">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I127">
         <v>-1.08</v>
@@ -6823,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I128">
         <v>-10.12</v>
@@ -6867,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I129">
         <v>-3.65</v>
@@ -6911,7 +6907,7 @@
         <v>2</v>
       </c>
       <c r="H130">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I130">
         <v>-8.16</v>
@@ -6955,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I131">
         <v>-13.36</v>
@@ -6999,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I132">
         <v>-2.43</v>
@@ -7087,7 +7083,7 @@
         <v>3</v>
       </c>
       <c r="H134">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I134">
         <v>-3.31</v>
@@ -7131,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I135">
         <v>-8.03</v>
@@ -7219,7 +7215,7 @@
         <v>3</v>
       </c>
       <c r="H137">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I137">
         <v>2.46</v>
@@ -7263,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I138">
         <v>-9.36</v>
@@ -7307,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I139">
         <v>-2.43</v>
@@ -7395,7 +7391,7 @@
         <v>3</v>
       </c>
       <c r="H141">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I141">
         <v>-7.45</v>
@@ -7439,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I142">
         <v>-10.12</v>
@@ -7527,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I144">
         <v>2.46</v>
@@ -7571,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I145">
         <v>-10.54</v>
@@ -7615,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I146">
         <v>-2.43</v>
@@ -7659,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I147">
         <v>-1.93</v>
@@ -7703,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="H148">
-        <v>6</v>
+        <v>8.41645027969696</v>
       </c>
       <c r="I148">
         <v>1.37</v>
@@ -7747,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I149">
         <v>-8.03</v>
@@ -7835,7 +7831,7 @@
         <v>3</v>
       </c>
       <c r="H151">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I151">
         <v>2.46</v>
@@ -7879,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I152">
         <v>-8.45</v>
@@ -7923,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I153">
         <v>-2.43</v>
@@ -8011,7 +8007,7 @@
         <v>3</v>
       </c>
       <c r="H155">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I155">
         <v>-3.35</v>
@@ -8055,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I156">
         <v>-10.12</v>
@@ -8143,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I158">
         <v>2.46</v>
@@ -8187,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I159">
         <v>-11.35</v>
@@ -8231,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I160">
         <v>-1.53</v>
@@ -8319,7 +8315,7 @@
         <v>3</v>
       </c>
       <c r="H162">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I162">
         <v>-4.14</v>
@@ -8363,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I163">
         <v>-10.12</v>
@@ -8407,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I164">
         <v>-3.65</v>
@@ -8451,7 +8447,7 @@
         <v>2</v>
       </c>
       <c r="H165">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I165">
         <v>-8.16</v>
@@ -8495,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I166">
         <v>-13.36</v>
@@ -8539,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I167">
         <v>-2.43</v>
@@ -8627,7 +8623,7 @@
         <v>3</v>
       </c>
       <c r="H169">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I169">
         <v>-3.31</v>
@@ -8671,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I170">
         <v>-10.12</v>
@@ -8759,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I172">
         <v>2.46</v>
@@ -8803,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I173">
         <v>-11.35</v>
@@ -8847,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I174">
         <v>-1.53</v>
@@ -8935,7 +8931,7 @@
         <v>3</v>
       </c>
       <c r="H176">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I176">
         <v>-13.92</v>
@@ -8979,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I177">
         <v>-10.12</v>
@@ -9067,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I179">
         <v>2.46</v>
@@ -9111,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I180">
         <v>-11.35</v>
@@ -9155,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I181">
         <v>-1.53</v>
@@ -9243,7 +9239,7 @@
         <v>3</v>
       </c>
       <c r="H183">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I183">
         <v>-7.4</v>
@@ -9287,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I184">
         <v>-10.12</v>
@@ -9375,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I186">
         <v>2.46</v>
@@ -9419,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I187">
         <v>-11.35</v>
@@ -9463,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I188">
         <v>2.16</v>
@@ -9551,7 +9547,7 @@
         <v>3</v>
       </c>
       <c r="H190">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I190">
         <v>-13.92</v>
@@ -9595,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I191">
         <v>-1.7</v>
@@ -9683,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I193">
         <v>2.46</v>
@@ -9727,7 +9723,7 @@
         <v>2</v>
       </c>
       <c r="H194">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I194">
         <v>-4.25</v>
@@ -9771,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I195">
         <v>-0.8</v>
@@ -9859,7 +9855,7 @@
         <v>3</v>
       </c>
       <c r="H197">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I197">
         <v>-6.25</v>
@@ -9903,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I198">
         <v>-2.8</v>
@@ -9991,7 +9987,7 @@
         <v>3</v>
       </c>
       <c r="H200">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I200">
         <v>2.46</v>
@@ -10035,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I201">
         <v>-2.27</v>
@@ -10079,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I202">
         <v>-2.43</v>
@@ -10167,7 +10163,7 @@
         <v>3</v>
       </c>
       <c r="H204">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I204">
         <v>-7.52</v>
@@ -10211,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I205">
         <v>-10.12</v>
@@ -10299,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I207">
         <v>2.46</v>
@@ -10343,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I208">
         <v>-11.35</v>
@@ -10387,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I209">
         <v>-1.53</v>
@@ -10475,7 +10471,7 @@
         <v>3</v>
       </c>
       <c r="H211">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I211">
         <v>-10.66</v>
@@ -10519,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I212">
         <v>-10.12</v>
@@ -10607,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I214">
         <v>2.46</v>
@@ -10651,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I215">
         <v>-11.35</v>
@@ -10695,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I216">
         <v>-1.53</v>
@@ -10783,7 +10779,7 @@
         <v>3</v>
       </c>
       <c r="H218">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I218">
         <v>-13.92</v>
@@ -10827,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I219">
         <v>-10.12</v>
@@ -10915,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I221">
         <v>2.46</v>
@@ -10959,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I222">
         <v>-11.35</v>
@@ -11003,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I223">
         <v>-1.53</v>
@@ -11091,7 +11087,7 @@
         <v>3</v>
       </c>
       <c r="H225">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I225">
         <v>-4.14</v>
@@ -11135,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I226">
         <v>-8.03</v>
@@ -11223,7 +11219,7 @@
         <v>3</v>
       </c>
       <c r="H228">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I228">
         <v>2.46</v>
@@ -11267,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I229">
         <v>-2.13</v>
@@ -11311,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I230">
         <v>-2.43</v>
@@ -11399,7 +11395,7 @@
         <v>3</v>
       </c>
       <c r="H232">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I232">
         <v>-5.01</v>
@@ -11443,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I233">
         <v>-10.12</v>
@@ -11531,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I235">
         <v>2.46</v>
@@ -11575,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I236">
         <v>-11.35</v>
@@ -11619,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I237">
         <v>-1.53</v>
@@ -11707,7 +11703,7 @@
         <v>3</v>
       </c>
       <c r="H239">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I239">
         <v>-10.66</v>
@@ -11751,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>5.7</v>
+        <v>8.1</v>
       </c>
       <c r="I240">
         <v>-10.04</v>
@@ -11795,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I241">
         <v>-1.07</v>
@@ -11839,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I242">
         <v>2.46</v>
@@ -11883,7 +11879,7 @@
         <v>2</v>
       </c>
       <c r="H243">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I243">
         <v>-4.25</v>
@@ -11927,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I244">
         <v>-1.53</v>
@@ -12015,7 +12011,7 @@
         <v>2</v>
       </c>
       <c r="H246">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I246">
         <v>-15.63</v>
@@ -12059,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I247">
         <v>-10.12</v>
@@ -12147,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I249">
         <v>2.46</v>
@@ -12191,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I250">
         <v>-11.35</v>
@@ -12235,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I251">
         <v>-1.53</v>
@@ -12323,7 +12319,7 @@
         <v>3</v>
       </c>
       <c r="H253">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I253">
         <v>-10.66</v>
@@ -12367,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I254">
         <v>-10.12</v>
@@ -12411,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I255">
         <v>-3.65</v>
@@ -12455,7 +12451,7 @@
         <v>2</v>
       </c>
       <c r="H256">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I256">
         <v>-8.16</v>
@@ -12499,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I257">
         <v>-13.36</v>
@@ -12543,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I258">
         <v>-2.43</v>
@@ -12631,7 +12627,7 @@
         <v>3</v>
       </c>
       <c r="H260">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I260">
         <v>-1.08</v>
@@ -12675,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I261">
         <v>-8.03</v>
@@ -12763,7 +12759,7 @@
         <v>3</v>
       </c>
       <c r="H263">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I263">
         <v>2.46</v>
@@ -12807,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I264">
         <v>-8.45</v>
@@ -12851,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I265">
         <v>-2.43</v>
@@ -12939,7 +12935,7 @@
         <v>3</v>
       </c>
       <c r="H267">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I267">
         <v>-5.01</v>
@@ -12983,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I268">
         <v>-10.12</v>
@@ -13071,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I270">
         <v>2.46</v>
@@ -13115,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I271">
         <v>-11.35</v>
@@ -13159,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I272">
         <v>-1.53</v>
@@ -13247,7 +13243,7 @@
         <v>3</v>
       </c>
       <c r="H274">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I274">
         <v>-13.92</v>
@@ -13291,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I275">
         <v>-10.12</v>
@@ -13379,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I277">
         <v>2.46</v>
@@ -13423,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I278">
         <v>-11.35</v>
@@ -13467,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="H279">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I279">
         <v>-1.53</v>
@@ -13555,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="H281">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I281">
         <v>-7.4</v>
@@ -13599,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="H282">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I282">
         <v>-10.12</v>
@@ -13687,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="H284">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I284">
         <v>2.46</v>
@@ -13731,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="H285">
-        <v>5.7</v>
+        <v>8.1</v>
       </c>
       <c r="I285">
         <v>-11.35</v>
@@ -13775,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="H286">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I286">
         <v>0.83</v>
@@ -13863,7 +13859,7 @@
         <v>3</v>
       </c>
       <c r="H288">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I288">
         <v>-13.92</v>
@@ -13907,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H289">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I289">
         <v>-11.47</v>
@@ -13995,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="H291">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I291">
         <v>2.46</v>
@@ -14039,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I292">
         <v>-2.43</v>
@@ -14083,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="H293">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I293">
         <v>-2.43</v>
@@ -14171,7 +14167,7 @@
         <v>2</v>
       </c>
       <c r="H295">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I295">
         <v>2.16</v>
@@ -14215,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="H296">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I296">
         <v>-10.12</v>
@@ -14303,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="H298">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I298">
         <v>2.46</v>
@@ -14347,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="H299">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I299">
         <v>-11.59</v>
@@ -14391,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="H300">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I300">
         <v>-2.43</v>
@@ -14479,7 +14475,7 @@
         <v>3</v>
       </c>
       <c r="H302">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I302">
         <v>-3.26</v>
@@ -14523,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="H303">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I303">
         <v>-10.12</v>
@@ -14611,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="H305">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I305">
         <v>2.46</v>
@@ -14655,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H306">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I306">
         <v>-11.59</v>
@@ -14699,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="H307">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I307">
         <v>-2.43</v>
@@ -14787,7 +14783,7 @@
         <v>3</v>
       </c>
       <c r="H309">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I309">
         <v>-3.26</v>
@@ -14831,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="H310">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I310">
         <v>-10.12</v>
@@ -14919,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="H312">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I312">
         <v>2.46</v>
@@ -14963,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="H313">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I313">
         <v>-11.35</v>
@@ -15007,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="H314">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I314">
         <v>-1.53</v>
@@ -15095,7 +15091,7 @@
         <v>3</v>
       </c>
       <c r="H316">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I316">
         <v>-13.92</v>
@@ -15139,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="H317">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I317">
         <v>-10.12</v>
@@ -15227,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="H319">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I319">
         <v>2.46</v>
@@ -15271,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="H320">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I320">
         <v>-11.38</v>
@@ -15315,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="H321">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I321">
         <v>-2.43</v>
@@ -15403,7 +15399,7 @@
         <v>3</v>
       </c>
       <c r="H323">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I323">
         <v>-6.42</v>
@@ -15447,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="H324">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I324">
         <v>-10.12</v>
@@ -15491,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="H325">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I325">
         <v>-3.65</v>
@@ -15535,7 +15531,7 @@
         <v>2</v>
       </c>
       <c r="H326">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I326">
         <v>-8.16</v>
@@ -15579,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="H327">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I327">
         <v>-13.36</v>
@@ -15623,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="H328">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I328">
         <v>-2.43</v>
@@ -15711,7 +15707,7 @@
         <v>3</v>
       </c>
       <c r="H330">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I330">
         <v>-1.08</v>
@@ -15755,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="H331">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I331">
         <v>-10.12</v>
@@ -15843,7 +15839,7 @@
         <v>0</v>
       </c>
       <c r="H333">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I333">
         <v>2.46</v>
@@ -15887,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="H334">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I334">
         <v>-2.86</v>
@@ -15931,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="H335">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I335">
         <v>-2.43</v>
@@ -16019,7 +16015,7 @@
         <v>3</v>
       </c>
       <c r="H337">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I337">
         <v>-12.06</v>
@@ -16063,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="H338">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I338">
         <v>-10.12</v>
@@ -16107,7 +16103,7 @@
         <v>0</v>
       </c>
       <c r="H339">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I339">
         <v>-3.65</v>
@@ -16151,7 +16147,7 @@
         <v>2</v>
       </c>
       <c r="H340">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="I340">
         <v>-8.16</v>
@@ -16195,7 +16191,7 @@
         <v>0</v>
       </c>
       <c r="H341">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I341">
         <v>-13.36</v>
@@ -16239,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="H342">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I342">
         <v>-2.43</v>
@@ -16327,7 +16323,7 @@
         <v>3</v>
       </c>
       <c r="H344">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="I344">
         <v>-8.36</v>
